--- a/example/advanced-sample.xlsx
+++ b/example/advanced-sample.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -156,13 +156,61 @@
   </si>
   <si>
     <t>lastName</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>jdoe@sam.com</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>101 main st</t>
+  </si>
+  <si>
+    <t>apt # 4</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>2000-08-15T13:38:41.199Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +222,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,16 +279,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,11 +591,11 @@
     <col min="13" max="13" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="2"/>
+    <col min="16" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +644,14 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -610,8 +676,10 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -636,8 +704,12 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -662,8 +734,10 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -690,8 +764,10 @@
       <c r="P5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -714,8 +790,12 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -742,8 +822,12 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -766,8 +850,12 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -790,8 +878,12 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -814,8 +906,12 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
+        <v>27106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -840,8 +936,12 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -864,8 +964,12 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -888,8 +992,12 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -912,8 +1020,12 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -936,8 +1048,12 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -960,8 +1076,12 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -984,8 +1104,12 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1008,8 +1132,12 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1032,8 +1160,15 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
